--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cntn6-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cntn6-Notch1.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.02853966666666667</v>
+        <v>0.07426566666666666</v>
       </c>
       <c r="H2">
-        <v>0.085619</v>
+        <v>0.222797</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.908252</v>
+        <v>38.55267666666666</v>
       </c>
       <c r="N2">
-        <v>167.724756</v>
+        <v>115.65803</v>
       </c>
       <c r="O2">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="P2">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="Q2">
-        <v>1.595602875996</v>
+        <v>2.863140234434444</v>
       </c>
       <c r="R2">
-        <v>14.360425883964</v>
+        <v>25.76826210991</v>
       </c>
       <c r="S2">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="T2">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.02853966666666667</v>
+        <v>0.07426566666666666</v>
       </c>
       <c r="H3">
-        <v>0.085619</v>
+        <v>0.222797</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>16.112028</v>
       </c>
       <c r="O3">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867321</v>
       </c>
       <c r="P3">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867323</v>
       </c>
       <c r="Q3">
-        <v>0.1532773028146667</v>
+        <v>0.3988568335906666</v>
       </c>
       <c r="R3">
-        <v>1.379495725332</v>
+        <v>3.589711502316</v>
       </c>
       <c r="S3">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867321</v>
       </c>
       <c r="T3">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867323</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.02853966666666667</v>
+        <v>0.07426566666666666</v>
       </c>
       <c r="H4">
-        <v>0.085619</v>
+        <v>0.222797</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.90822366666667</v>
+        <v>23.02986166666667</v>
       </c>
       <c r="N4">
-        <v>77.724671</v>
+        <v>69.089585</v>
       </c>
       <c r="O4">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="P4">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="Q4">
-        <v>0.7394120673721112</v>
+        <v>1.710328029916111</v>
       </c>
       <c r="R4">
-        <v>6.654708606349</v>
+        <v>15.392952269245</v>
       </c>
       <c r="S4">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="T4">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
     </row>
   </sheetData>
